--- a/AI_Tools_Evaluation_for_Tabnine__Codium__CoPilot.xlsx
+++ b/AI_Tools_Evaluation_for_Tabnine__Codium__CoPilot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e65e4d39d57abdf/Career/AI_V2X/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_2009A55813267F6340CDCE5A1A9D5F9C67FE3C83" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC5AF7A3-BA68-F840-8646-FA4635F322A7}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_2009A55813267F6340CDCE5A1A9D5F9C67FE3C83" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10857FB8-A195-D14E-81CE-8BF817FAF5A2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="42720" windowHeight="27740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45840" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - AI_Tools_Evaluation_f" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>AI_Tools_Evaluation_for_Tabnine__Codium__CoPilot</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Category</t>
   </si>
@@ -128,16 +125,22 @@
     <t>Ability to diagnose and fix tricky multi-line code issues.</t>
   </si>
   <si>
-    <t>Guided Context Awareness</t>
-  </si>
-  <si>
-    <t>Context Pinning</t>
-  </si>
-  <si>
-    <t>Pinning functions or guidelines to improve context awareness.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Tabnine Overall Comments</t>
+  </si>
+  <si>
+    <t>Codium Overall Comments</t>
+  </si>
+  <si>
+    <t>CoPilot Overall Comments</t>
+  </si>
+  <si>
+    <t>AI Tools Evaluation</t>
+  </si>
+  <si>
+    <t>Overall Comments on the Tools</t>
   </si>
 </sst>
 </file>
@@ -154,12 +157,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -169,7 +167,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -201,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -436,13 +441,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -473,8 +491,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,17 +533,14 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -514,15 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,6 +637,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1654,10 +1688,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1673,234 +1707,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="23"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="10">
+      <c r="D14" s="13">
         <f>SUM(D3:D13)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="10">
-        <f t="shared" ref="E15:F15" si="0">SUM(E3:E13)</f>
+      <c r="E14" s="13">
+        <f t="shared" ref="E14:F14" si="0">SUM(E3:E13)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="10">
-        <f>SUM(G3:G14)</f>
+      <c r="G14" s="13">
+        <f>SUM(G3:G13)</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="17" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G10:G12"/>
   </mergeCells>
-  <conditionalFormatting sqref="G15">
+  <conditionalFormatting sqref="G14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="99"/>
